--- a/arquivo_teste_consulta.xlsx
+++ b/arquivo_teste_consulta.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diego.carelli\Documents\DUDU\dash_layout\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{464623CB-624F-427E-8F75-E23C47205BB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE1703A5-0E0C-43AD-877C-087E7C3674CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5F13A8A9-D0C4-4701-B9DA-36F61015A530}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1704" uniqueCount="553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1738" uniqueCount="554">
   <si>
     <t>id</t>
   </si>
@@ -1695,6 +1695,9 @@
   </si>
   <si>
     <t>AVENIDA CAPITAO OSVINO PINTO DE SOUZA</t>
+  </si>
+  <si>
+    <t>TESTE</t>
   </si>
 </sst>
 </file>
@@ -2068,10 +2071,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C3758E8-0BB0-4647-8339-36B872E48023}">
-  <dimension ref="A1:AK101"/>
+  <dimension ref="A1:AK102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="N103" sqref="N103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10285,6 +10288,113 @@
         <v>82</v>
       </c>
     </row>
+    <row r="102" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>553</v>
+      </c>
+      <c r="B102" t="s">
+        <v>553</v>
+      </c>
+      <c r="C102" t="s">
+        <v>553</v>
+      </c>
+      <c r="D102" t="s">
+        <v>553</v>
+      </c>
+      <c r="E102" t="s">
+        <v>553</v>
+      </c>
+      <c r="F102" t="s">
+        <v>553</v>
+      </c>
+      <c r="G102" t="s">
+        <v>553</v>
+      </c>
+      <c r="H102" t="s">
+        <v>553</v>
+      </c>
+      <c r="I102" t="s">
+        <v>553</v>
+      </c>
+      <c r="J102" t="s">
+        <v>553</v>
+      </c>
+      <c r="K102" t="s">
+        <v>553</v>
+      </c>
+      <c r="L102" t="s">
+        <v>553</v>
+      </c>
+      <c r="M102" t="s">
+        <v>553</v>
+      </c>
+      <c r="N102" t="s">
+        <v>553</v>
+      </c>
+      <c r="O102" t="s">
+        <v>553</v>
+      </c>
+      <c r="P102" t="s">
+        <v>553</v>
+      </c>
+      <c r="Q102" t="s">
+        <v>553</v>
+      </c>
+      <c r="R102" t="s">
+        <v>553</v>
+      </c>
+      <c r="S102" t="s">
+        <v>553</v>
+      </c>
+      <c r="T102" t="s">
+        <v>553</v>
+      </c>
+      <c r="U102" t="s">
+        <v>553</v>
+      </c>
+      <c r="V102" t="s">
+        <v>553</v>
+      </c>
+      <c r="W102" t="s">
+        <v>553</v>
+      </c>
+      <c r="X102">
+        <v>999999</v>
+      </c>
+      <c r="Y102" t="s">
+        <v>553</v>
+      </c>
+      <c r="Z102" t="s">
+        <v>553</v>
+      </c>
+      <c r="AA102" t="s">
+        <v>553</v>
+      </c>
+      <c r="AB102" t="s">
+        <v>553</v>
+      </c>
+      <c r="AC102" t="s">
+        <v>553</v>
+      </c>
+      <c r="AD102" t="s">
+        <v>553</v>
+      </c>
+      <c r="AE102" t="s">
+        <v>553</v>
+      </c>
+      <c r="AF102" t="s">
+        <v>553</v>
+      </c>
+      <c r="AG102" t="s">
+        <v>553</v>
+      </c>
+      <c r="AH102" t="s">
+        <v>553</v>
+      </c>
+      <c r="AI102" t="s">
+        <v>553</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
